--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3784933.326291407</v>
+        <v>3860462.995956211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800628</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>322.8760190225879</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>240.5903015751963</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>300.3600025084118</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>67.25025504144566</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>52.61100976783511</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>131.8612775267003</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>88.81991200983039</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.2620823710465</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>236.7139500600954</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>194.3210173524985</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>1.797245289947522</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>20.23390929204779</v>
       </c>
       <c r="U16" t="n">
-        <v>6.063010891604035</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>129.4106056624395</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>9.243066536885056</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>219.9803307982907</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>208.2679477631763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>101.3913673420928</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>122.9684277897099</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>45.7533320443045</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>215.6214853475421</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>78.04445447466483</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>73.6025219366589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>29.07526021445942</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>140.2678835057465</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.7414829592639</v>
       </c>
       <c r="F37" t="n">
-        <v>57.64843562452403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417324</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3597,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262912</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014412</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.507043867063</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>79.74835156703928</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.633341602776493</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037924</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274009</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3834,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262912</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014412</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.507043867063</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>160.8809665452365</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>15.29007751582977</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>105.7410395632858</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>400.9492795830859</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>394.0037788338824</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>380.0803747724734</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2454.12858437661</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.359929106496</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.894170845416</v>
+        <v>1767.323137322975</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.894170845416</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>121.8725323672793</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>418.2614436197335</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>418.2614436197335</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.473993239633</v>
+        <v>1077.074462393507</v>
       </c>
       <c r="C8" t="n">
-        <v>765.5114762992212</v>
+        <v>708.1119454530949</v>
       </c>
       <c r="D8" t="n">
-        <v>765.5114762992212</v>
+        <v>708.1119454530949</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>708.1119454530949</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>297.1260406634873</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>171.3014304168209</v>
       </c>
       <c r="K12" t="n">
-        <v>485.404702608941</v>
+        <v>582.1916992613337</v>
       </c>
       <c r="L12" t="n">
-        <v>732.169830515405</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1302.632414646288</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1013.503775859846</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1013.503775859846</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570736</v>
+        <v>724.0866058228858</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>724.0866058228858</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>724.0866058228858</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,13 +5299,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0114883989233</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="V16" t="n">
-        <v>958.0114883989233</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="W16" t="n">
-        <v>668.5943183619627</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619627</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281742</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945775</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164473</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601279</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916993</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>941.8533975675258</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>687.168909361639</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.759190940159</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X22" t="n">
-        <v>836.769640042142</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.2646934632137</v>
+        <v>349.7492534403921</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>349.7492534403921</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>199.6326140280563</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>199.6326140280563</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>199.6326140280563</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>1374.705737436983</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y25" t="n">
-        <v>1153.913158293453</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6257,10 +6259,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6306,19 +6308,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>440.4391652839709</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>290.3225258716351</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V28" t="n">
-        <v>568.2827263274862</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822457</v>
@@ -6461,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>604.4337416462796</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>435.4975587183727</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>435.4975587183727</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>287.5844651359796</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>287.5844651359796</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>287.5844651359796</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1424.570288803701</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1200.784873593207</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>911.6562348067655</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V31" t="n">
-        <v>656.9717466008786</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="W31" t="n">
-        <v>656.9717466008786</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="X31" t="n">
-        <v>428.9821957028613</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="Y31" t="n">
-        <v>428.9821957028613</v>
+        <v>786.0822064765193</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,61 +6688,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.9315552689001</v>
+        <v>4122.943804186302</v>
       </c>
       <c r="C34" t="n">
-        <v>536.9315552689001</v>
+        <v>3954.007621258395</v>
       </c>
       <c r="D34" t="n">
-        <v>386.8149158565643</v>
+        <v>3924.63867154682</v>
       </c>
       <c r="E34" t="n">
-        <v>238.9018222741712</v>
+        <v>3924.63867154682</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.74872404891</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="W34" t="n">
-        <v>985.7136853104475</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="X34" t="n">
-        <v>757.7241344124302</v>
+        <v>4343.736383329832</v>
       </c>
       <c r="Y34" t="n">
-        <v>536.9315552689001</v>
+        <v>4122.943804186302</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,46 +6922,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>2032.925401907738</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2312.465467126435</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>4147.73197768239</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>4147.73197768239</v>
       </c>
       <c r="D37" t="n">
-        <v>155.4478345153607</v>
+        <v>3997.615338270054</v>
       </c>
       <c r="E37" t="n">
-        <v>155.4478345153607</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>4147.73197768239</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>4147.73197768239</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>4147.73197768239</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550623</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610212</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003461</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405217</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028627</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514124</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515107</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261914</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643338</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899144</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207849</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014313</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231285</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141889</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465322</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121751</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851637</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614745</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028627</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256447</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701588</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.49550722705</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507014</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171049</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136702</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918913</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.8871334832924</v>
+        <v>496.0629430245583</v>
       </c>
       <c r="C40" t="n">
-        <v>100.8871334832924</v>
+        <v>496.0629430245583</v>
       </c>
       <c r="D40" t="n">
-        <v>100.8871334832924</v>
+        <v>345.9463036122226</v>
       </c>
       <c r="E40" t="n">
-        <v>100.8871334832924</v>
+        <v>265.3924131404657</v>
       </c>
       <c r="F40" t="n">
-        <v>100.8871334832924</v>
+        <v>265.3924131404657</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028627</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028627</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028627</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241967</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168809</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799394</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471234</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298007</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585754</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557911</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119736</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035289</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035289</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.921157035289</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1187.921157035289</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>898.5039869983282</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>898.5039869983282</v>
       </c>
       <c r="Y40" t="n">
-        <v>282.5355983135321</v>
+        <v>677.711407854798</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7393,46 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823578</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917513896</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.88834779519</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515084</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619117</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643316</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899122</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014291</v>
@@ -7464,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525777</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714507</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201101995</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.806365104744</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.271807131629</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358143</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675021</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126491</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571631</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636291</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643593</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307628</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526327</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262076</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2623.573505376137</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>2623.573505376137</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>2483.667400459912</v>
       </c>
       <c r="T42" t="n">
         <v>2288.75278438369</v>
@@ -7527,7 +7529,7 @@
         <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.258395043132</v>
       </c>
       <c r="X42" t="n">
         <v>1363.4068948376</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>3867.997941244686</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>3867.997941244686</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>3867.997941244686</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>3867.997941244686</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746776</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746776</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294719</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916667</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380577</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.72349062519</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.43553563632</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403505</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431054</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436451</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S43" t="n">
-        <v>1348.33044553573</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T43" t="n">
-        <v>1124.545030325236</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U43" t="n">
-        <v>835.416391538794</v>
+        <v>4498.428536116474</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>4498.428536116474</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>4498.428536116474</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>4270.438985218457</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>4049.646406074926</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483982</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>427.726883381638</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>427.726883381638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>427.726883381638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>427.726883381638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>280.8369358837276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>112.6616142035482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488384</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V46" t="n">
-        <v>898.7925182488384</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W46" t="n">
-        <v>609.3753482118777</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X46" t="n">
-        <v>609.3753482118777</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y46" t="n">
-        <v>609.3753482118777</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>32.92248665775499</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>180.0237016735869</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>306.1147370139953</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208048</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>180.0237016735871</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231144</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943542</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>253.7371603504589</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445162</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720513</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735722</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445162</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.22654370589078</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>223.9124100990896</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>201.3136517663415</v>
       </c>
       <c r="U16" t="n">
-        <v>280.1743415069733</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>96.29904972659767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>209.3415868152097</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>66.25702160028669</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>78.25505057341474</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.10220112128481</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>102.7412275993273</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>100.6806306022647</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>36.51615797628591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>70.86937389287129</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>124.3182880469443</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.5402128037529</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>5.153164517184763</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>35.69247968730528</v>
       </c>
       <c r="F37" t="n">
-        <v>87.7726123984072</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>66.68561107952989</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>162.8602268606011</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037924</v>
       </c>
       <c r="S43" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.3563858533408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>133.6237508517063</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>92.17977042031744</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.8244980832</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>723403.7605147619</v>
+      </c>
+      <c r="O2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,22 +26392,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.48295464189141e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.263094297130009e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.208688100062621e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26429,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="M4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="N4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143812</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871704</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871671</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471431</v>
+        <v>-70138.27840471445</v>
       </c>
       <c r="C6" t="n">
+        <v>519829.6008098301</v>
+      </c>
+      <c r="D6" t="n">
         <v>519829.6008098305</v>
       </c>
-      <c r="D6" t="n">
-        <v>519829.6008098304</v>
-      </c>
       <c r="E6" t="n">
-        <v>91210.72846770985</v>
+        <v>91210.72846770956</v>
       </c>
       <c r="F6" t="n">
+        <v>616370.7649446059</v>
+      </c>
+      <c r="G6" t="n">
+        <v>616370.7649446059</v>
+      </c>
+      <c r="H6" t="n">
+        <v>616370.7649446059</v>
+      </c>
+      <c r="I6" t="n">
+        <v>616370.7649446054</v>
+      </c>
+      <c r="J6" t="n">
+        <v>439947.5457520128</v>
+      </c>
+      <c r="K6" t="n">
+        <v>616370.7649446052</v>
+      </c>
+      <c r="L6" t="n">
         <v>616370.7649446058</v>
       </c>
-      <c r="G6" t="n">
-        <v>616370.7649446054</v>
-      </c>
-      <c r="H6" t="n">
-        <v>616370.7649446058</v>
-      </c>
-      <c r="I6" t="n">
-        <v>616370.7649446055</v>
-      </c>
-      <c r="J6" t="n">
-        <v>439947.5457520132</v>
-      </c>
-      <c r="K6" t="n">
-        <v>616370.7649446059</v>
-      </c>
-      <c r="L6" t="n">
-        <v>616370.764944606</v>
-      </c>
       <c r="M6" t="n">
-        <v>481569.7497107686</v>
+        <v>481569.7497107685</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446061</v>
+        <v>616370.7649446024</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.764944606</v>
+        <v>616370.7649446069</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.7649446058</v>
+        <v>616370.7649446084</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541045</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541045</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253578</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.320099833421409e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-3.839316974154726e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.229594535194337e-12</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>1.046753741769294</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>87.16195689493861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>69.37109817005722</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>79.18370760512352</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>199.5266335559929</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>250.0690925455614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>324.9642580109646</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.56989781089075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>49.56792418188229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.586146311018502e-11</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443634</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444963</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176658</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961219</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041509</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304467</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565549</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927217</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540914</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947017</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647515</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446488</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104688</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562951</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354906</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354112</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386734</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127096</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215742</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622997</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847359004</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724869</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813486</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855548</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458567</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710968</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095123</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677482</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680337</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081172</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990352</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298653</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822388</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557943</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196135</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171331</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263762</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065643</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469082</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235698</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337704</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336914</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892279</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351856</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443634</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444963</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176658</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961219</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041509</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304467</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565549</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927217</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540914</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947017</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647515</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446488</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104688</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562951</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354906</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354112</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386734</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127096</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215742</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622997</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847359004</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724869</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813486</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855548</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458567</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710968</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095123</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677482</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361526</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680337</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081172</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990352</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298653</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822388</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557943</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196135</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171331</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263762</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065643</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469082</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235698</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337704</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336914</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892279</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351856</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>74.83266561266173</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>462.387403914695</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>639.3093104120081</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523295</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36446,13 +36448,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>513.2182750716</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36674,22 +36676,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973748</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>226.2375109014951</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415094</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303351</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109099</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221147</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081149</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.15460709515</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109148</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502067</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349916</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490754</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005193</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594855</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504686</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980152</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915692</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315264</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507527</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556607</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299115</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799297</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789737</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056048</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206039</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118017</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219414868</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303351</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109099</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221147</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081149</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.15460709515</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109148</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502067</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349916</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953164</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005193</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560263</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504686</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980152</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411103</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714636</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586475</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556607</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299115</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799297</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789737</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056048</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206039</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118017</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860462.995956211</v>
+        <v>3853445.981064499</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800628</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767061</v>
+        <v>7728169.883767059</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>265.4795156711259</v>
       </c>
       <c r="H2" t="n">
-        <v>322.8760190225879</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>142.3124832087952</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>300.3600025084118</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67.25025504144566</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>88.81991200983039</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>160.8139200470129</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>236.7139500600954</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.8688121773845</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3210173524985</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>20.23390929204779</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.243066536885056</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>219.9803307982907</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>101.3913673420928</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>255.7709849266045</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.7533320443045</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>78.04445447466483</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>29.07526021445942</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.7414829592639</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417324</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274009</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262912</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014412</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>79.74835156703928</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037924</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274009</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262912</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014412</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>160.8809665452365</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.7410395632858</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786.7375321813302</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>786.7375321813302</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>786.7375321813302</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>400.9492795830859</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F2" t="n">
-        <v>394.0037788338824</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G2" t="n">
-        <v>380.0803747724734</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830418</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2553.399107979035</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2299.637322617127</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322975</v>
+        <v>1968.574435273556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8725323672793</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>121.8725323672793</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1077.074462393507</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="C8" t="n">
-        <v>708.1119454530949</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>708.1119454530949</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>708.1119454530949</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>297.1260406634873</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.710787940431</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457628</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3014304168209</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>582.1916992613337</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298184</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962217</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5202,49 +5202,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1302.632414646288</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1013.503775859846</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>1013.503775859846</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>724.0866058228858</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X13" t="n">
-        <v>724.0866058228858</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.0866058228858</v>
+        <v>275.8724572960277</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>2911.709630095316</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>3158.47475800178</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>3465.794891281741</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>3795.657518945774</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O15" t="n">
-        <v>4253.421048821322</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P15" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1167.48286482109</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1167.48286482109</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1167.48286482109</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>878.0656947841297</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5518,13 +5518,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294737</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227918</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858311</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>585.5099430858311</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.1735122404926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>229.0333923118347</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>378.1030765138945</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>941.8533975675258</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>687.168909361639</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>397.7517393246783</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.7492534403921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>349.7492534403921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>199.6326140280563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>199.6326140280563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>199.6326140280563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706318</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>531.3977182706318</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>609.3753482118777</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>440.4391652839709</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>290.3225258716351</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488384</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W28" t="n">
-        <v>609.3753482118777</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X28" t="n">
-        <v>609.3753482118777</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>609.3753482118777</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,34 +6475,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635867</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.4337416462796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>435.4975587183727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>435.4975587183727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>287.5844651359796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>287.5844651359796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>287.5844651359796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765193</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>786.0822064765193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>786.0822064765193</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>462.7283310300493</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365134</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4122.943804186302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3954.007621258395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3924.63867154682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.63867154682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.74872404891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.725934227849</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4571.725934227849</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.725934227849</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.736383329832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4122.943804186302</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,43 +6922,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3997.615338270054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4437.14914771935</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4147.73197768239</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4147.73197768239</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550623</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610212</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003461</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405217</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514124</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515107</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.70982261914</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643338</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899144</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207849</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014313</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231285</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141889</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465322</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121751</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851637</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590557</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614745</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256447</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701588</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.49550722705</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507014</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171049</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136702</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918913</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.0629430245583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>496.0629430245583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>345.9463036122226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404657</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404657</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241967</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.785188168809</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799394</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471234</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585754</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119736</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035289</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.921157035289</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.921157035289</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.921157035289</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>898.5039869983282</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>898.5039869983282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>677.711407854798</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822455</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823578</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917513896</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.88834779519</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515084</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619117</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643316</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899122</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525777</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714507</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101995</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.806365104744</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.271807131629</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358143</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675021</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126491</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571631</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636291</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643593</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307628</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526327</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262076</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
         <v>2288.75278438369</v>
@@ -7529,7 +7529,7 @@
         <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043132</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
         <v>1363.4068948376</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3867.997941244686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3867.997941244686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3867.997941244686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3867.997941244686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916667</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380577</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.72349062519</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.43553563632</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403505</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431054</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436451</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929844</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4498.428536116474</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4498.428536116474</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4498.428536116474</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4270.438985218457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4049.646406074926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.032036247722</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1281.032036247722</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>991.90339746128</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>737.2189092553931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>447.8017392184324</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>32.92248665775499</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>199.6230805871096</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>180.0237016735869</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9245,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>306.1147370139953</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>91.23759968302144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>145.2351313103796</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978319</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231144</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>50.62661940943542</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>253.7371603504589</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445162</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720513</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445162</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.963168004552841</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>27.22654370589078</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>201.3136517663415</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.3415868152097</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.25702160028669</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.10220112128481</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>30.75201340998655</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>100.6806306022647</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>70.86937389287129</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>119.5402128037529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>35.69247968730528</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>66.68561107952989</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037924</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.3563858533408</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>92.17977042031744</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659455.8244980832</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147616</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>4.263094297130009e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.208688100062621e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26447,16 +26447,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143812</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143898</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871704</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871671</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471445</v>
+        <v>-70138.27840471402</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.60080983</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098305</v>
+        <v>519829.6008098302</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846770956</v>
+        <v>90236.13720798826</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.1736848837</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.173684884</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.1736848837</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446054</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.5457520128</v>
+        <v>438972.9544922912</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446052</v>
+        <v>615396.1736848839</v>
       </c>
       <c r="L6" t="n">
-        <v>616370.7649446058</v>
+        <v>615396.1736848836</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107685</v>
+        <v>480595.1584510466</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446024</v>
+        <v>615396.173684884</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.7649446069</v>
+        <v>615396.1736848837</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.7649446084</v>
+        <v>615396.1736848837</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541045</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541045</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253578</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.839316974154726e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>5.229594535194337e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>148.3046543496691</v>
       </c>
       <c r="H2" t="n">
-        <v>1.046753741769294</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>74.13583714886258</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>69.37109817005722</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>79.18370760512352</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>324.9642580109646</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>13.60179276195865</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>49.56792418188229</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.586146311018502e-11</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443634</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444963</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176658</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961219</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041509</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304467</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565549</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927217</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540914</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947017</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647515</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446488</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104688</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562951</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354906</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354112</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386734</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127096</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215742</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622997</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847359004</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724869</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813486</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855548</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710968</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677482</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361526</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680337</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081172</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990352</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298653</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557943</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196135</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171331</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263762</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065643</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469082</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235698</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337704</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336914</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892279</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351856</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443634</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444963</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176658</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961219</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041509</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304467</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565549</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927217</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540914</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947017</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647515</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446488</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104688</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562951</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354906</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354112</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386734</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127096</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215742</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622997</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847359004</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724869</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813486</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855548</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710968</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677482</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361526</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680337</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081172</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990352</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298653</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557943</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196135</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171331</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263762</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065643</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469082</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235698</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337704</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336914</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892279</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351856</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>74.83266561266173</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,16 +35737,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>462.387403914695</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>639.3093104120081</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>133.1477786379281</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>352.3285462419043</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110537</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>201.2020579973748</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415094</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303351</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109099</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221147</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081149</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.15460709515</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109148</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502067</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349916</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490754</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594855</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504686</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980152</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>536.1008625915692</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315264</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507527</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556607</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299115</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799297</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789737</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056048</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206039</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118017</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187539</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219414868</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303351</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109099</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221147</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081149</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.15460709515</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109148</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502067</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349916</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953164</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560263</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504686</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980152</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411103</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714636</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586475</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556607</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299115</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799297</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789737</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056048</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206039</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118017</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187539</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3853445.981064499</v>
+        <v>3858385.243913531</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>258.5713913920424</v>
       </c>
       <c r="G2" t="n">
-        <v>265.4795156711259</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>96.99215614420304</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>142.3124832087952</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833502987</v>
+        <v>32.55436865900859</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>160.8139200470129</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498028</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8688121773845</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.7339938093175</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>181.6663772687442</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>49.61031394227937</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>255.7709849266045</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.1077313359454</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>115.8434257527679</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670917</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>188.8929318614241</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>886.5559895554136</v>
       </c>
       <c r="F2" t="n">
-        <v>475.570084765806</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>479.109576677496</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2553.399107979035</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2299.637322617127</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1968.574435273556</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1968.574435273556</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1968.574435273556</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961342</v>
+        <v>233.71612998394</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982238</v>
+        <v>86.82618248602969</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655624</v>
+        <v>86.82618248602969</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655624</v>
+        <v>86.82618248602969</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655624</v>
+        <v>86.82618248602969</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2778626358873</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358873</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2534.710787940431</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2316.076120912494</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2062.314335550585</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1731.251448207015</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1378.482792936901</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1005.017034675821</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.8777027000092</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>659.3731057211726</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141287</v>
+        <v>966.6932390011343</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.274692278279</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.814757496976</v>
+        <v>2050.644882483983</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765184</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>496.6650364395578</v>
+        <v>920.3704617345006</v>
       </c>
       <c r="X13" t="n">
-        <v>496.6650364395578</v>
+        <v>920.3704617345006</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.8724572960277</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483981</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1204.339775939179</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>980.5543607286844</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>691.4257219422426</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1337.729738895204</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1337.729738895204</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1048.601100108762</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>793.916611902875</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>793.916611902875</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341671</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126628</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790661</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.23751609332</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6387,49 +6387,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1269.971530765645</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>980.8428919792032</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>726.1584037733163</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>436.7412337363557</v>
+        <v>1381.902709191471</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383384</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6651,16 +6651,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,10 +6961,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7368,16 +7368,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1308.115329283737</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1084.329914073242</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>795.2012752868008</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>540.5167870809139</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>540.5167870809139</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809139</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809139</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>199.6230805871096</v>
+        <v>73.53204524669906</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.53204524669934</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978319</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.963168004552841</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.85065954277732</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>16.25443271485904</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>148.3104960413239</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>30.75201340998655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>192.8130786476578</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>170.6795725838231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>9.027878122179146</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="10">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147617</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
         <v>723403.760514761</v>
@@ -26349,13 +26349,13 @@
         <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471402</v>
+        <v>-70138.27840471422</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.60080983</v>
+        <v>519829.6008098304</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098301</v>
       </c>
       <c r="E6" t="n">
-        <v>90236.13720798826</v>
+        <v>91113.26934173699</v>
       </c>
       <c r="F6" t="n">
-        <v>615396.1736848837</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="G6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186339</v>
       </c>
       <c r="H6" t="n">
-        <v>615396.1736848837</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="I6" t="n">
-        <v>615396.1736848841</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="J6" t="n">
-        <v>438972.9544922912</v>
+        <v>439850.0866260408</v>
       </c>
       <c r="K6" t="n">
-        <v>615396.1736848839</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="L6" t="n">
-        <v>615396.1736848836</v>
+        <v>616273.3058186332</v>
       </c>
       <c r="M6" t="n">
-        <v>480595.1584510466</v>
+        <v>481472.2905847959</v>
       </c>
       <c r="N6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="O6" t="n">
-        <v>615396.1736848837</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="P6" t="n">
-        <v>615396.1736848837</v>
+        <v>616273.3058186334</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>148.304654349669</v>
       </c>
       <c r="G2" t="n">
-        <v>148.3046543496691</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>316.792013876592</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>74.13583714886258</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853507134</v>
+        <v>12.64559052952842</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.08019533676973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>13.60179276195865</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.476909019367265e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>406.7164955186342</v>
+        <v>280.6254601782239</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713078</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
